--- a/medicine/Psychotrope/Bagnoli_di_Sopra_Merlot/Bagnoli_di_Sopra_Merlot.xlsx
+++ b/medicine/Psychotrope/Bagnoli_di_Sopra_Merlot/Bagnoli_di_Sopra_Merlot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bagnoli di Sopra Merlot est un vin rouge italien de la région Vénétie doté d'une appellation DOC depuis le 16 août 1995. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Padoue dans les communes de Agna, Arre, Bagnoli di Sopra, Battaglia Terme, Bovolenta, Candiana, Due Carrare, Cartura, Conselve, Monselice, Pernumia, San Pietro Viminario, Terrassa Padovana et Tribano. Le vignoble Colli Euganei est à quelques kilomètres.
 Voir aussi les articles Bagnoli di Sopra Merlot classico  (aire de production limitée)  et Bagnoli di Sopra Merlot  riserva.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis tendant vers un rouge grenat avec le vieillissement
 odeur : intense, fruité, épicé, caractéristique, agréable
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :
 Padoue  (1995/96)  295,0
